--- a/ClassMaterials/Filesystem_2/activity.xlsx
+++ b/ClassMaterials/Filesystem_2/activity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/hewner_rose-hulman_edu/Documents/repos/csse332/ClassMaterials/Filesystem_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\song3\csse332\ClassMaterials\Filesystem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{48F39063-0F3B-4284-9854-4F24CEE1791A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B0A88A2-FBA2-4A84-B78A-F20023128DDA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF365D87-7D32-45EC-BD7E-1D71AA59022C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{620FC279-024F-4556-A749-912B5D19524E}"/>
   </bookViews>
@@ -377,7 +377,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>There is one inode block (block 0).  Each row in the block is an inode.  The columns are for file size, 1 direct block pointers, 1 indirect block pointer.</a:t>
+            <a:t>There is one inode block (block 2).  Each row in the block is an inode.  The columns are for file size, 1 direct block pointers, 1 indirect block pointer.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1081,18 +1081,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,18 +1307,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA38C357-CD14-4776-91B4-6AFCF2079A40}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0FA2C9-3DA1-4003-93E2-9B639DDCA406}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0FA2C9-3DA1-4003-93E2-9B639DDCA406}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA38C357-CD14-4776-91B4-6AFCF2079A40}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
